--- a/biology/Zoologie/Chikila/Chikila.xlsx
+++ b/biology/Zoologie/Chikila/Chikila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chikila est un genre de gymnophiones, le seul de la famille des Chikilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chikila est un genre de gymnophiones, le seul de la famille des Chikilidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quatre espèces de ce genre sont endémiques d'Inde. Elles se rencontrent en Arunachal Pradesh, en Assam, au Meghalaya, au Nagaland et au Tripura[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quatre espèces de ce genre sont endémiques d'Inde. Elles se rencontrent en Arunachal Pradesh, en Assam, au Meghalaya, au Nagaland et au Tripura.
 Leurs présences sont incertaines en Birmanie et au Bangladesh.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 janvier 2014) :
 Chikila alcocki Kamei, Gower, Wilkinson &amp; Biju, 2013
 Chikila darlong Kamei, Gower, Wilkinson &amp; Biju, 2013
 Chikila fulleri (Alcock, 1904)
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kamei, San Mauro, Gower, Van Bocxlaer, Sherratt, Thomas, Babu, Bossuyt, Wilkinson, and Biju, 2012 : Discovery of a new family of amphibians from northeast India with ancient links to Africa. Proceedings of the Royal Society of London. B, Biological Sciences, vol. 279, p. 2396–2401 (texte intégral).</t>
         </is>
